--- a/StockPredictor/bin/Debug/Packages/Data/CLNE/CLNEpriceInformation.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CLNE/CLNEpriceInformation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,6 +452,29 @@
         <v>4.07</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42602.01458333333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F4">
+        <v>6.88</v>
+      </c>
+      <c r="G4">
+        <v>4.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
